--- a/Analytics/E1/TGMXcorners_e1.xlsx
+++ b/Analytics/E1/TGMXcorners_e1.xlsx
@@ -172,7 +172,7 @@
     <t>SUM("TTGMXcorners")</t>
   </si>
   <si>
-    <t>SUM("TTGMXcorners") / 30</t>
+    <t>SUM("TTGMXcorners") / 46</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
         <v>85964.0</v>
       </c>
       <c r="D2" t="n">
-        <v>2865.4666666666667</v>
+        <v>1868.7826086956522</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>78270.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2609.0</v>
+        <v>1701.5217391304348</v>
       </c>
     </row>
     <row r="4">
@@ -846,7 +846,7 @@
         <v>76320.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2544.0</v>
+        <v>1659.1304347826087</v>
       </c>
     </row>
     <row r="5">
@@ -860,7 +860,7 @@
         <v>76184.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2539.4666666666667</v>
+        <v>1656.1739130434783</v>
       </c>
     </row>
     <row r="6">
@@ -874,7 +874,7 @@
         <v>76170.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2539.0</v>
+        <v>1655.8695652173913</v>
       </c>
     </row>
     <row r="7">
@@ -888,7 +888,7 @@
         <v>71583.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2386.1</v>
+        <v>1556.1521739130435</v>
       </c>
     </row>
     <row r="8">
@@ -902,7 +902,7 @@
         <v>71316.0</v>
       </c>
       <c r="D8" t="n">
-        <v>2377.2</v>
+        <v>1550.3478260869565</v>
       </c>
     </row>
     <row r="9">
@@ -916,7 +916,7 @@
         <v>71062.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2368.733333333333</v>
+        <v>1544.8260869565217</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>68427.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2280.9</v>
+        <v>1487.5434782608695</v>
       </c>
     </row>
     <row r="11">
@@ -944,7 +944,7 @@
         <v>66798.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2226.6</v>
+        <v>1452.1304347826087</v>
       </c>
     </row>
     <row r="12">
@@ -958,7 +958,7 @@
         <v>66569.0</v>
       </c>
       <c r="D12" t="n">
-        <v>2218.9666666666667</v>
+        <v>1447.1521739130435</v>
       </c>
     </row>
     <row r="13">
@@ -972,7 +972,7 @@
         <v>64908.0</v>
       </c>
       <c r="D13" t="n">
-        <v>2163.6</v>
+        <v>1411.0434782608695</v>
       </c>
     </row>
     <row r="14">
@@ -986,7 +986,7 @@
         <v>64607.0</v>
       </c>
       <c r="D14" t="n">
-        <v>2153.5666666666666</v>
+        <v>1404.5</v>
       </c>
     </row>
     <row r="15">
@@ -1000,7 +1000,7 @@
         <v>63800.0</v>
       </c>
       <c r="D15" t="n">
-        <v>2126.6666666666665</v>
+        <v>1386.9565217391305</v>
       </c>
     </row>
     <row r="16">
@@ -1014,7 +1014,7 @@
         <v>63161.0</v>
       </c>
       <c r="D16" t="n">
-        <v>2105.366666666667</v>
+        <v>1373.0652173913043</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1028,7 @@
         <v>62285.0</v>
       </c>
       <c r="D17" t="n">
-        <v>2076.1666666666665</v>
+        <v>1354.0217391304348</v>
       </c>
     </row>
     <row r="18">
@@ -1042,7 +1042,7 @@
         <v>61737.0</v>
       </c>
       <c r="D18" t="n">
-        <v>2057.9</v>
+        <v>1342.108695652174</v>
       </c>
     </row>
     <row r="19">
@@ -1056,7 +1056,7 @@
         <v>61620.0</v>
       </c>
       <c r="D19" t="n">
-        <v>2054.0</v>
+        <v>1339.5652173913043</v>
       </c>
     </row>
     <row r="20">
@@ -1070,7 +1070,7 @@
         <v>60600.0</v>
       </c>
       <c r="D20" t="n">
-        <v>2020.0</v>
+        <v>1317.391304347826</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
         <v>60213.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2007.1</v>
+        <v>1308.9782608695652</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>58087.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1936.2333333333333</v>
+        <v>1262.7608695652175</v>
       </c>
     </row>
     <row r="23">
@@ -1112,7 +1112,7 @@
         <v>56974.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1899.1333333333334</v>
+        <v>1238.5652173913043</v>
       </c>
     </row>
     <row r="24">
@@ -1126,7 +1126,7 @@
         <v>53116.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1770.5333333333333</v>
+        <v>1154.695652173913</v>
       </c>
     </row>
     <row r="25">
@@ -1140,7 +1140,7 @@
         <v>52321.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1744.0333333333333</v>
+        <v>1137.4130434782608</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/TGMXcorners_e1.xlsx
+++ b/Analytics/E1/TGMXcorners_e1.xlsx
@@ -94,76 +94,76 @@
     <t>24</t>
   </si>
   <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
     <t>Plymouth</t>
   </si>
   <si>
-    <t>Southampton</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Stoke</t>
   </si>
   <si>
     <t>QPR</t>
   </si>
   <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
     <t>Preston</t>
   </si>
   <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Norwich</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
   </si>
   <si>
     <t>Sunderland</t>
   </si>
   <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Watford</t>
+    <t>Burnley</t>
   </si>
   <si>
     <t>West Brom</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>Leeds</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -240,7 +240,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>49848.0</v>
+        <v>14330.0</v>
       </c>
     </row>
     <row r="3">
@@ -251,7 +251,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>46181.0</v>
+        <v>14058.0</v>
       </c>
     </row>
     <row r="4">
@@ -262,7 +262,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>41144.0</v>
+        <v>12720.0</v>
       </c>
     </row>
     <row r="5">
@@ -273,7 +273,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>39160.0</v>
+        <v>12648.0</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +284,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>39152.0</v>
+        <v>12031.0</v>
       </c>
     </row>
     <row r="7">
@@ -295,7 +295,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>38327.0</v>
+        <v>11356.0</v>
       </c>
     </row>
     <row r="8">
@@ -306,7 +306,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>36739.0</v>
+        <v>10811.0</v>
       </c>
     </row>
     <row r="9">
@@ -317,7 +317,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>34360.0</v>
+        <v>10706.0</v>
       </c>
     </row>
     <row r="10">
@@ -328,7 +328,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>33701.0</v>
+        <v>10554.0</v>
       </c>
     </row>
     <row r="11">
@@ -339,7 +339,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>32686.0</v>
+        <v>10354.0</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +350,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>32356.0</v>
+        <v>9740.0</v>
       </c>
     </row>
     <row r="13">
@@ -361,7 +361,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>32262.0</v>
+        <v>8587.0</v>
       </c>
     </row>
     <row r="14">
@@ -372,7 +372,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>32153.0</v>
+        <v>8429.0</v>
       </c>
     </row>
     <row r="15">
@@ -383,7 +383,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>31956.0</v>
+        <v>8317.0</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +394,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>31801.0</v>
+        <v>7645.0</v>
       </c>
     </row>
     <row r="17">
@@ -405,7 +405,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>30721.0</v>
+        <v>7462.0</v>
       </c>
     </row>
     <row r="18">
@@ -416,7 +416,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>30503.0</v>
+        <v>7134.0</v>
       </c>
     </row>
     <row r="19">
@@ -427,7 +427,7 @@
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>28479.0</v>
+        <v>6705.0</v>
       </c>
     </row>
     <row r="20">
@@ -438,7 +438,7 @@
         <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>27884.0</v>
+        <v>6612.0</v>
       </c>
     </row>
     <row r="21">
@@ -449,7 +449,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>26536.0</v>
+        <v>5026.0</v>
       </c>
     </row>
     <row r="22">
@@ -460,7 +460,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>25787.0</v>
+        <v>4219.0</v>
       </c>
     </row>
     <row r="23">
@@ -471,7 +471,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>25077.0</v>
+        <v>3985.0</v>
       </c>
     </row>
     <row r="24">
@@ -482,7 +482,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>25058.0</v>
+        <v>3533.0</v>
       </c>
     </row>
     <row r="25">
@@ -493,7 +493,7 @@
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>24175.0</v>
+        <v>1689.0</v>
       </c>
     </row>
   </sheetData>
@@ -523,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>43828.0</v>
+        <v>15063.0</v>
       </c>
     </row>
     <row r="3">
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>41810.0</v>
+        <v>11569.0</v>
       </c>
     </row>
     <row r="4">
@@ -545,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>39783.0</v>
+        <v>11512.0</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
-        <v>39515.0</v>
+        <v>11044.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>38742.0</v>
+        <v>10800.0</v>
       </c>
     </row>
     <row r="7">
@@ -578,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>38319.0</v>
+        <v>10782.0</v>
       </c>
     </row>
     <row r="8">
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>37993.0</v>
+        <v>10745.0</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" t="n">
-        <v>37361.0</v>
+        <v>10731.0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>36471.0</v>
+        <v>10191.0</v>
       </c>
     </row>
     <row r="11">
@@ -625,7 +625,7 @@
         <v>49</v>
       </c>
       <c r="C11" t="n">
-        <v>36038.0</v>
+        <v>9808.0</v>
       </c>
     </row>
     <row r="12">
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>35950.0</v>
+        <v>9806.0</v>
       </c>
     </row>
     <row r="13">
@@ -644,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>35084.0</v>
+        <v>8815.0</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>34416.0</v>
+        <v>8640.0</v>
       </c>
     </row>
     <row r="15">
@@ -666,10 +666,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>34401.0</v>
+        <v>8609.0</v>
       </c>
     </row>
     <row r="16">
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n">
-        <v>32222.0</v>
+        <v>8029.0</v>
       </c>
     </row>
     <row r="17">
@@ -688,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="n">
-        <v>30439.0</v>
+        <v>7905.0</v>
       </c>
     </row>
     <row r="18">
@@ -702,7 +702,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>30097.0</v>
+        <v>7379.0</v>
       </c>
     </row>
     <row r="19">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>28422.0</v>
+        <v>6469.0</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>28039.0</v>
+        <v>6329.0</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>27868.0</v>
+        <v>6129.0</v>
       </c>
     </row>
     <row r="22">
@@ -743,10 +743,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>27366.0</v>
+        <v>5977.0</v>
       </c>
     </row>
     <row r="23">
@@ -754,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>24001.0</v>
+        <v>5425.0</v>
       </c>
     </row>
     <row r="24">
@@ -765,10 +765,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>20059.0</v>
+        <v>3564.0</v>
       </c>
     </row>
     <row r="25">
@@ -776,10 +776,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>17822.0</v>
+        <v>3330.0</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>85964.0</v>
+        <v>25374.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1868.7826086956522</v>
+        <v>551.6086956521739</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>78270.0</v>
+        <v>24249.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1701.5217391304348</v>
+        <v>527.1521739130435</v>
       </c>
     </row>
     <row r="4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>76320.0</v>
+        <v>22708.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1659.1304347826087</v>
+        <v>493.6521739130435</v>
       </c>
     </row>
     <row r="5">
@@ -854,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>76184.0</v>
+        <v>22526.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1656.1739130434783</v>
+        <v>489.69565217391306</v>
       </c>
     </row>
     <row r="6">
@@ -871,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>76170.0</v>
+        <v>22218.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1655.8695652173913</v>
+        <v>483.0</v>
       </c>
     </row>
     <row r="7">
@@ -882,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>71583.0</v>
+        <v>20553.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1556.1521739130435</v>
+        <v>446.80434782608694</v>
       </c>
     </row>
     <row r="8">
@@ -896,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>71316.0</v>
+        <v>20471.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1550.3478260869565</v>
+        <v>445.0217391304348</v>
       </c>
     </row>
     <row r="9">
@@ -910,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>71062.0</v>
+        <v>19229.0</v>
       </c>
       <c r="D9" t="n">
-        <v>1544.8260869565217</v>
+        <v>418.0217391304348</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>68427.0</v>
+        <v>19169.0</v>
       </c>
       <c r="D10" t="n">
-        <v>1487.5434782608695</v>
+        <v>416.7173913043478</v>
       </c>
     </row>
     <row r="11">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>66798.0</v>
+        <v>19099.0</v>
       </c>
       <c r="D11" t="n">
-        <v>1452.1304347826087</v>
+        <v>415.19565217391306</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>66569.0</v>
+        <v>19031.0</v>
       </c>
       <c r="D12" t="n">
-        <v>1447.1521739130435</v>
+        <v>413.7173913043478</v>
       </c>
     </row>
     <row r="13">
@@ -966,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>64908.0</v>
+        <v>18500.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1411.0434782608695</v>
+        <v>402.17391304347825</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>64607.0</v>
+        <v>17485.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1404.5</v>
+        <v>380.10869565217394</v>
       </c>
     </row>
     <row r="15">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>63800.0</v>
+        <v>17450.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1386.9565217391305</v>
+        <v>379.3478260869565</v>
       </c>
     </row>
     <row r="16">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>63161.0</v>
+        <v>17196.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1373.0652173913043</v>
+        <v>373.82608695652175</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>62285.0</v>
+        <v>16531.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1354.0217391304348</v>
+        <v>359.3695652173913</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>61737.0</v>
+        <v>14513.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1342.108695652174</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="19">
@@ -1050,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C19" t="n">
-        <v>61620.0</v>
+        <v>14375.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1339.5652173913043</v>
+        <v>312.5</v>
       </c>
     </row>
     <row r="20">
@@ -1064,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>60600.0</v>
+        <v>12941.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1317.391304347826</v>
+        <v>281.32608695652175</v>
       </c>
     </row>
     <row r="21">
@@ -1078,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>60213.0</v>
+        <v>12625.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1308.9782608695652</v>
+        <v>274.45652173913044</v>
       </c>
     </row>
     <row r="22">
@@ -1092,13 +1092,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>58087.0</v>
+        <v>12248.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1262.7608695652175</v>
+        <v>266.2608695652174</v>
       </c>
     </row>
     <row r="23">
@@ -1106,13 +1106,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>56974.0</v>
+        <v>11497.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1238.5652173913043</v>
+        <v>249.93478260869566</v>
       </c>
     </row>
     <row r="24">
@@ -1120,13 +1120,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>53116.0</v>
+        <v>8958.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1154.695652173913</v>
+        <v>194.7391304347826</v>
       </c>
     </row>
     <row r="25">
@@ -1134,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>52321.0</v>
+        <v>8356.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1137.4130434782608</v>
+        <v>181.65217391304347</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E1/TGMXcorners_e1.xlsx
+++ b/Analytics/E1/TGMXcorners_e1.xlsx
@@ -109,16 +109,22 @@
     <t>Blackburn</t>
   </si>
   <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
     <t>Millwall</t>
   </si>
   <si>
-    <t>Leeds</t>
-  </si>
-  <si>
     <t>Derby</t>
   </si>
   <si>
-    <t>Stoke</t>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
   </si>
   <si>
     <t>QPR</t>
@@ -130,34 +136,28 @@
     <t>Middlesbrough</t>
   </si>
   <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
     <t>Bristol City</t>
   </si>
   <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Watford</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
     <t>Oxford</t>
   </si>
   <si>
     <t>Preston</t>
   </si>
   <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
     <t>Swansea</t>
   </si>
   <si>
     <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
   </si>
   <si>
     <t>Burnley</t>
@@ -295,7 +295,7 @@
         <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>11356.0</v>
+        <v>11723.0</v>
       </c>
     </row>
     <row r="8">
@@ -306,7 +306,7 @@
         <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>10811.0</v>
+        <v>11676.0</v>
       </c>
     </row>
     <row r="9">
@@ -317,7 +317,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>10706.0</v>
+        <v>11356.0</v>
       </c>
     </row>
     <row r="10">
@@ -328,7 +328,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>10554.0</v>
+        <v>11245.0</v>
       </c>
     </row>
     <row r="11">
@@ -339,7 +339,7 @@
         <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>10354.0</v>
+        <v>11047.0</v>
       </c>
     </row>
     <row r="12">
@@ -350,7 +350,7 @@
         <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>9740.0</v>
+        <v>10982.0</v>
       </c>
     </row>
     <row r="13">
@@ -361,7 +361,7 @@
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>8587.0</v>
+        <v>10354.0</v>
       </c>
     </row>
     <row r="14">
@@ -372,7 +372,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="n">
-        <v>8429.0</v>
+        <v>10214.0</v>
       </c>
     </row>
     <row r="15">
@@ -383,7 +383,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>8317.0</v>
+        <v>9269.0</v>
       </c>
     </row>
     <row r="16">
@@ -394,7 +394,7 @@
         <v>40</v>
       </c>
       <c r="C16" t="n">
-        <v>7645.0</v>
+        <v>8800.0</v>
       </c>
     </row>
     <row r="17">
@@ -405,7 +405,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>7462.0</v>
+        <v>8455.0</v>
       </c>
     </row>
     <row r="18">
@@ -416,7 +416,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>7134.0</v>
+        <v>8429.0</v>
       </c>
     </row>
     <row r="19">
@@ -449,7 +449,7 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>5026.0</v>
+        <v>5758.0</v>
       </c>
     </row>
     <row r="22">
@@ -460,7 +460,7 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>4219.0</v>
+        <v>5026.0</v>
       </c>
     </row>
     <row r="23">
@@ -471,7 +471,7 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>3985.0</v>
+        <v>4769.0</v>
       </c>
     </row>
     <row r="24">
@@ -482,7 +482,7 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>3533.0</v>
+        <v>4097.0</v>
       </c>
     </row>
     <row r="25">
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
         <v>15063.0</v>
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>11569.0</v>
+        <v>11594.0</v>
       </c>
     </row>
     <row r="4">
@@ -545,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>11512.0</v>
+        <v>11579.0</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +556,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>11044.0</v>
+        <v>11569.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,10 +567,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>10800.0</v>
+        <v>11555.0</v>
       </c>
     </row>
     <row r="7">
@@ -578,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>10782.0</v>
+        <v>11512.0</v>
       </c>
     </row>
     <row r="8">
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>10745.0</v>
+        <v>11274.0</v>
       </c>
     </row>
     <row r="9">
@@ -600,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>10731.0</v>
+        <v>10873.0</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>10191.0</v>
+        <v>10782.0</v>
       </c>
     </row>
     <row r="11">
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
-        <v>9808.0</v>
+        <v>10731.0</v>
       </c>
     </row>
     <row r="12">
@@ -633,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>9806.0</v>
+        <v>10382.0</v>
       </c>
     </row>
     <row r="13">
@@ -644,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>8815.0</v>
+        <v>10291.0</v>
       </c>
     </row>
     <row r="14">
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
-        <v>8640.0</v>
+        <v>9849.0</v>
       </c>
     </row>
     <row r="15">
@@ -669,7 +669,7 @@
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>8609.0</v>
+        <v>9727.0</v>
       </c>
     </row>
     <row r="16">
@@ -677,10 +677,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>8029.0</v>
+        <v>8640.0</v>
       </c>
     </row>
     <row r="17">
@@ -688,10 +688,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>7905.0</v>
+        <v>8609.0</v>
       </c>
     </row>
     <row r="18">
@@ -699,10 +699,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
-        <v>7379.0</v>
+        <v>8444.0</v>
       </c>
     </row>
     <row r="19">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>6469.0</v>
+        <v>8029.0</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>6329.0</v>
+        <v>7379.0</v>
       </c>
     </row>
     <row r="21">
@@ -732,10 +732,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>6129.0</v>
+        <v>7251.0</v>
       </c>
     </row>
     <row r="22">
@@ -743,7 +743,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
         <v>5977.0</v>
@@ -765,10 +765,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
-        <v>3564.0</v>
+        <v>3894.0</v>
       </c>
     </row>
     <row r="25">
@@ -776,10 +776,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>3330.0</v>
+        <v>3564.0</v>
       </c>
     </row>
   </sheetData>
@@ -815,10 +815,10 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>25374.0</v>
+        <v>25924.0</v>
       </c>
       <c r="D2" t="n">
-        <v>551.6086956521739</v>
+        <v>563.5652173913044</v>
       </c>
     </row>
     <row r="3">
@@ -829,10 +829,10 @@
         <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>24249.0</v>
+        <v>24931.0</v>
       </c>
       <c r="D3" t="n">
-        <v>527.1521739130435</v>
+        <v>541.9782608695652</v>
       </c>
     </row>
     <row r="4">
@@ -840,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>22708.0</v>
+        <v>24299.0</v>
       </c>
       <c r="D4" t="n">
-        <v>493.6521739130435</v>
+        <v>528.2391304347826</v>
       </c>
     </row>
     <row r="5">
@@ -854,13 +854,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>22526.0</v>
+        <v>23518.0</v>
       </c>
       <c r="D5" t="n">
-        <v>489.69565217391306</v>
+        <v>511.2608695652174</v>
       </c>
     </row>
     <row r="6">
@@ -868,13 +868,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>22218.0</v>
+        <v>22757.0</v>
       </c>
       <c r="D6" t="n">
-        <v>483.0</v>
+        <v>494.7173913043478</v>
       </c>
     </row>
     <row r="7">
@@ -882,13 +882,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>20553.0</v>
+        <v>22551.0</v>
       </c>
       <c r="D7" t="n">
-        <v>446.80434782608694</v>
+        <v>490.2391304347826</v>
       </c>
     </row>
     <row r="8">
@@ -896,13 +896,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>20471.0</v>
+        <v>22413.0</v>
       </c>
       <c r="D8" t="n">
-        <v>445.0217391304348</v>
+        <v>487.2391304347826</v>
       </c>
     </row>
     <row r="9">
@@ -910,13 +910,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>19229.0</v>
+        <v>21092.0</v>
       </c>
       <c r="D9" t="n">
-        <v>418.0217391304348</v>
+        <v>458.5217391304348</v>
       </c>
     </row>
     <row r="10">
@@ -924,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>19169.0</v>
+        <v>20945.0</v>
       </c>
       <c r="D10" t="n">
-        <v>416.7173913043478</v>
+        <v>455.32608695652175</v>
       </c>
     </row>
     <row r="11">
@@ -938,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>19099.0</v>
+        <v>20081.0</v>
       </c>
       <c r="D11" t="n">
-        <v>415.19565217391306</v>
+        <v>436.54347826086956</v>
       </c>
     </row>
     <row r="12">
@@ -952,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>19031.0</v>
+        <v>19703.0</v>
       </c>
       <c r="D12" t="n">
-        <v>413.7173913043478</v>
+        <v>428.32608695652175</v>
       </c>
     </row>
     <row r="13">
@@ -966,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C13" t="n">
-        <v>18500.0</v>
+        <v>19582.0</v>
       </c>
       <c r="D13" t="n">
-        <v>402.17391304347825</v>
+        <v>425.69565217391306</v>
       </c>
     </row>
     <row r="14">
@@ -980,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>17485.0</v>
+        <v>18607.0</v>
       </c>
       <c r="D14" t="n">
-        <v>380.10869565217394</v>
+        <v>404.5</v>
       </c>
     </row>
     <row r="15">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>17450.0</v>
+        <v>18426.0</v>
       </c>
       <c r="D15" t="n">
-        <v>379.3478260869565</v>
+        <v>400.5652173913044</v>
       </c>
     </row>
     <row r="16">
@@ -1008,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>17196.0</v>
+        <v>18260.0</v>
       </c>
       <c r="D16" t="n">
-        <v>373.82608695652175</v>
+        <v>396.95652173913044</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1022,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>16531.0</v>
+        <v>17878.0</v>
       </c>
       <c r="D17" t="n">
-        <v>359.3695652173913</v>
+        <v>388.6521739130435</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>14513.0</v>
+        <v>17653.0</v>
       </c>
       <c r="D18" t="n">
-        <v>315.5</v>
+        <v>383.7608695652174</v>
       </c>
     </row>
     <row r="19">
@@ -1050,13 +1050,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
-        <v>14375.0</v>
+        <v>16461.0</v>
       </c>
       <c r="D19" t="n">
-        <v>312.5</v>
+        <v>357.8478260869565</v>
       </c>
     </row>
     <row r="20">
@@ -1064,13 +1064,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>12941.0</v>
+        <v>15287.0</v>
       </c>
       <c r="D20" t="n">
-        <v>281.32608695652175</v>
+        <v>332.32608695652175</v>
       </c>
     </row>
     <row r="21">
@@ -1078,13 +1078,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>12625.0</v>
+        <v>14398.0</v>
       </c>
       <c r="D21" t="n">
-        <v>274.45652173913044</v>
+        <v>313.0</v>
       </c>
     </row>
     <row r="22">
@@ -1092,13 +1092,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>12248.0</v>
+        <v>12798.0</v>
       </c>
       <c r="D22" t="n">
-        <v>266.2608695652174</v>
+        <v>278.2173913043478</v>
       </c>
     </row>
     <row r="23">
@@ -1109,10 +1109,10 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>11497.0</v>
+        <v>11980.0</v>
       </c>
       <c r="D23" t="n">
-        <v>249.93478260869566</v>
+        <v>260.4347826086956</v>
       </c>
     </row>
     <row r="24">
@@ -1123,10 +1123,10 @@
         <v>48</v>
       </c>
       <c r="C24" t="n">
-        <v>8958.0</v>
+        <v>9522.0</v>
       </c>
       <c r="D24" t="n">
-        <v>194.7391304347826</v>
+        <v>207.0</v>
       </c>
     </row>
     <row r="25">
@@ -1134,13 +1134,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
-        <v>8356.0</v>
+        <v>8920.0</v>
       </c>
       <c r="D25" t="n">
-        <v>181.65217391304347</v>
+        <v>193.91304347826087</v>
       </c>
     </row>
   </sheetData>
